--- a/data/trans_bre/P1402-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1402-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.404472055264541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.3846363819217394</v>
+        <v>-0.3846363819217435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04911422717615015</v>
@@ -649,7 +649,7 @@
         <v>-0.1455421063223075</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.03811759387288522</v>
+        <v>-0.03811759387288564</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.124480398827377</v>
+        <v>-2.210021464960966</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.647567462154016</v>
+        <v>-2.732574807673718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.182089831195593</v>
+        <v>-4.573847534049815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.953341137179613</v>
+        <v>-3.065231307926126</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3202304611047158</v>
+        <v>-0.3281724855053187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3224657252026427</v>
+        <v>-0.3369462292172302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.43397949994102</v>
+        <v>-0.3973905704006785</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2436680923836338</v>
+        <v>-0.2598999620951119</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.796900816710925</v>
+        <v>2.764281970575253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.066845683245292</v>
+        <v>3.094841194769856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.735590985491997</v>
+        <v>1.675934644292413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.248483682874683</v>
+        <v>2.171113671328075</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6177573141869238</v>
+        <v>0.582859830383512</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5814810628606967</v>
+        <v>0.5501393452201405</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2204161764663478</v>
+        <v>0.2056712541025424</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2737502207460709</v>
+        <v>0.2519695554607448</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.22404844461449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.8778025584629007</v>
+        <v>-0.8778025584629021</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1697926343284051</v>
@@ -749,7 +749,7 @@
         <v>-0.02673560741886674</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.09915678621881835</v>
+        <v>-0.0991567862188185</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.225023714006891</v>
+        <v>-1.153500094628076</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6025534493416358</v>
+        <v>-0.6055825231338163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.066610282451509</v>
+        <v>-2.731160898667428</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.093576182818064</v>
+        <v>-3.062023801159448</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1647869576285791</v>
+        <v>-0.1550969707143721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0775730649373587</v>
+        <v>-0.07997286131441646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3069132627665159</v>
+        <v>-0.2918338682011237</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2978983694191454</v>
+        <v>-0.2975365799131512</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.680877229182025</v>
+        <v>3.359095078510486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.165058215753288</v>
+        <v>3.999303055737839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.105548214856614</v>
+        <v>2.278230206217191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.158239437510934</v>
+        <v>1.11259074683744</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6744607289262515</v>
+        <v>0.6329903663764297</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8022982910290971</v>
+        <v>0.7155440439393788</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3048499847002204</v>
+        <v>0.3068919112163335</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1496032033599894</v>
+        <v>0.1518824868746176</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.8758755642069183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.459316336290657</v>
+        <v>-2.459316336290655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5054596012285598</v>
@@ -849,7 +849,7 @@
         <v>-0.08979070960175728</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2774993980621917</v>
+        <v>-0.2774993980621916</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2334102216912926</v>
+        <v>-0.2912476556240534</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.467198238495304</v>
+        <v>-1.504311154464095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.033486623488456</v>
+        <v>-4.086621835372195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.038236331088417</v>
+        <v>-5.082725656647572</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.04755028480322172</v>
+        <v>-0.101315968974781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1759494317616316</v>
+        <v>-0.1842389092520727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3592256312900371</v>
+        <v>-0.3496659756763714</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4703405314754157</v>
+        <v>-0.4829337568593863</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.485513455014562</v>
+        <v>4.556297851747113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.373862231606753</v>
+        <v>3.955862016948235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.05790434666516</v>
+        <v>2.265392314564072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.1078477585366494</v>
+        <v>-0.1119519793355269</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.324676765270379</v>
+        <v>1.35011328476251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7741095193213278</v>
+        <v>0.6789540202062999</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2508258943772164</v>
+        <v>0.2863057382701854</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.008900086871562997</v>
+        <v>0.001398873331024476</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5618659732070055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.145129066538673</v>
+        <v>-2.145129066538676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1783892838924558</v>
@@ -949,7 +949,7 @@
         <v>0.07233570115553389</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2231409088071022</v>
+        <v>-0.2231409088071025</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.139545900086566</v>
+        <v>-1.367453874209341</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.813914549967232</v>
+        <v>-1.897977703092707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.14731156965831</v>
+        <v>-1.609894155434909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.155126277292057</v>
+        <v>-4.31132275042779</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.191586111578954</v>
+        <v>-0.2108760773201064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1716746862574066</v>
+        <v>-0.1739712043752583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2420064522982277</v>
+        <v>-0.1889414638089827</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3777379602115615</v>
+        <v>-0.3861422279346798</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.893365842437941</v>
+        <v>2.992799786018342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.566716177248546</v>
+        <v>3.633180779503128</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.086567897809988</v>
+        <v>3.091088580980154</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.1128326387609924</v>
+        <v>-0.262827105444325</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6396516752269941</v>
+        <v>0.66265070577399</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4446501657713424</v>
+        <v>0.4435781186864719</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4689772003157056</v>
+        <v>0.4918688305581073</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.002716285657984882</v>
+        <v>-0.03145655708208314</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.3867964775495711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.488587795418173</v>
+        <v>-1.488587795418174</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1985130720634242</v>
@@ -1049,7 +1049,7 @@
         <v>-0.04409985258740275</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1598938452210607</v>
+        <v>-0.1598938452210609</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.07718657270353292</v>
+        <v>-0.0007360622200036495</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1639766876976408</v>
+        <v>-0.2267833149609997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.983642874450155</v>
+        <v>-1.735075531164425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.881634321833509</v>
+        <v>-2.670451585719348</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.008555191444737938</v>
+        <v>0.0007485658029931595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02026078349674085</v>
+        <v>-0.02939839498546132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2118683207635292</v>
+        <v>-0.1860183766658149</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2817169448875185</v>
+        <v>-0.2640747528055437</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.18287150955579</v>
+        <v>2.252140859785278</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.471082675164852</v>
+        <v>2.56749418471044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9123697693209081</v>
+        <v>0.9912166174817275</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.3803016030473732</v>
+        <v>-0.3940544357277033</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4298690840248303</v>
+        <v>0.4403981079057042</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3594339211334102</v>
+        <v>0.3701756156136768</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1108599524239427</v>
+        <v>0.1184848296036898</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.04583636840150284</v>
+        <v>-0.0452155065555826</v>
       </c>
     </row>
     <row r="19">
